--- a/購物網站資料表.xlsx
+++ b/購物網站資料表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShoppingDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBC1E10-A1EC-43D5-BCDA-BA74D03A30EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68954DD0-8A13-49CF-A3D7-55AC8CA2FCB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="1080" windowWidth="17040" windowHeight="12900" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
+    <workbookView xWindow="6105" yWindow="105" windowWidth="21570" windowHeight="15180" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
   </bookViews>
   <sheets>
     <sheet name="資料表分類" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="91">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -256,10 +256,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>等級</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>電話</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -288,79 +284,97 @@
     <t>f_address</t>
   </si>
   <si>
+    <t>f_accountStatus</t>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(25)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員資料表(t_member)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>信箱。太長的就擋掉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號狀態。0:停用，1:啟用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_createdTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單資料表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單流水號</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>總金額</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>狀態</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的地</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>到貨日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>購買的商品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員等級資料表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>f_wallet</t>
-  </si>
-  <si>
-    <t>f_accountStatus</t>
-  </si>
-  <si>
-    <t>生日</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>varchar(40)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(25)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>會員資料表(t_member)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>信箱。太長的就擋掉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>帳號狀態。0:停用，1:啟用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_createdTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>訂單資料表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>訂單流水號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>編號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>總金額</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>狀態</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>目的地</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>到貨日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_totalSpent</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>總消費金額，當金額大於多少時就可以升等級。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等級。等級越高折扣越高</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -841,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D101F85-424C-4929-BB72-A533CD2B233E}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1253,7 +1267,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1328,79 +1342,81 @@
     <row r="39" spans="1:6">
       <c r="A39" s="6"/>
       <c r="B39" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
       <c r="F39" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="6"/>
       <c r="B40" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="D40" s="5"/>
-      <c r="E40" s="2"/>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
       <c r="F40" s="3" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="5"/>
       <c r="B43" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="2"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="2"/>
@@ -1408,83 +1424,85 @@
         <v>0</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="6"/>
+      <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
       <c r="F45" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="6"/>
       <c r="B46" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D46" s="5"/>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="6"/>
+      <c r="B47" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="9"/>
-    </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="2"/>
-      <c r="B50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1493,39 +1511,31 @@
       <c r="C51" s="3"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="5"/>
+      <c r="A52" s="2"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
+      <c r="C52" s="3"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="2"/>
+      <c r="A53" s="5"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+      <c r="C53" s="4"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="6"/>
+      <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="5"/>
+      <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="6"/>
@@ -1533,9 +1543,7 @@
       <c r="C55" s="3"/>
       <c r="D55" s="5"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="6"/>
@@ -1543,9 +1551,7 @@
       <c r="C56" s="3"/>
       <c r="D56" s="5"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="6"/>
@@ -1555,9 +1561,134 @@
       <c r="E57" s="2"/>
       <c r="F57" s="3"/>
     </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="6"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2"/>
+      <c r="B62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="5"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="6"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="6"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="6"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="6"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A48:F48"/>
+  <mergeCells count="6">
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A49:F49"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A21:F21"/>

--- a/購物網站資料表.xlsx
+++ b/購物網站資料表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShoppingDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68954DD0-8A13-49CF-A3D7-55AC8CA2FCB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E82B05-6F10-440F-A192-5A1D0C44009F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="105" windowWidth="21570" windowHeight="15180" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
+    <workbookView xWindow="10275" yWindow="495" windowWidth="21570" windowHeight="15600" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
   </bookViews>
   <sheets>
     <sheet name="資料表分類" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="107">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>f_userNmae</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>f_pwd</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -167,9 +163,6 @@
     <t>f_createdTime</t>
   </si>
   <si>
-    <t>f_owner</t>
-  </si>
-  <si>
     <t>PK</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -284,97 +277,165 @@
     <t>f_address</t>
   </si>
   <si>
+    <t>生日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員資料表(t_member)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>信箱。太長的就擋掉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號狀態。0:停用，1:啟用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_createdTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單流水號</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>總金額</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的地</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>到貨日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_wallet</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_totalSpent</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>總消費金額，當金額大於多少時就可以升等級。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>等級。等級越高折扣越高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單資料表(t_order)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_memberId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>f_accountStatus</t>
-  </si>
-  <si>
-    <t>生日</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>varchar(40)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(25)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>會員資料表(t_member)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>信箱。太長的就擋掉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>帳號狀態。0:停用，1:啟用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_createdTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>訂單資料表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>訂單流水號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>編號</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>總金額</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>狀態</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>目的地</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>到貨日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>購買的商品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>會員等級資料表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_wallet</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_totalSpent</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>總消費金額，當金額大於多少時就可以升等級。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>等級。等級越高折扣越高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_status</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_arrivalDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_destination</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單編號。訂單創建時間+訂單id，以確保不重複</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_serialNumber</t>
+  </si>
+  <si>
+    <t>nvarchar(30)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_id</t>
+  </si>
+  <si>
+    <t>f_orderId</t>
+  </si>
+  <si>
+    <t>f_productId</t>
+  </si>
+  <si>
+    <t>f_quantity</t>
+  </si>
+  <si>
+    <t>訂單詳情流水號</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>數量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單狀態。1.處理中  2.已確認  3.已取消  4.備貨中  5.已發貨  6.已到達  7.已取貨  8.已退貨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_shippingMethod</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送方式。1.超商取貨  2.店到店 3.宅配</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_total</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_createdUser</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小計</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單明細資料表(t_orderDetails)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -504,13 +565,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -540,6 +612,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,17 +942,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D101F85-424C-4929-BB72-A533CD2B233E}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="22.25" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="57.5" customWidth="1"/>
+    <col min="6" max="6" width="81.875" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="20.625" customWidth="1"/>
     <col min="9" max="9" width="20.25" customWidth="1"/>
@@ -1007,78 +1094,78 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6"/>
       <c r="B18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1091,7 +1178,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1121,153 +1208,153 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="6"/>
       <c r="B27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
       <c r="F27" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="6"/>
       <c r="B28" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="2"/>
       <c r="F28" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="6"/>
       <c r="B29" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="2"/>
       <c r="F29" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1296,188 +1383,198 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B36" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="6"/>
       <c r="B39" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
       <c r="F39" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="6"/>
       <c r="B40" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="2">
         <v>0</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="5"/>
       <c r="B43" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="5"/>
       <c r="B44" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2">
         <v>0</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2">
         <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="6"/>
       <c r="B46" s="3" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="2">
         <v>1</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="6"/>
       <c r="B47" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="11"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="12"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -1506,188 +1603,239 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="2"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
+      <c r="A51" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="3"/>
+      <c r="E51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
+      <c r="B52" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="3"/>
+      <c r="F52" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="5"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
+      <c r="B53" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="3"/>
+      <c r="F53" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+      <c r="B54" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="3"/>
+      <c r="F54" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="6"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D55" s="5"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="3"/>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="6"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
+      <c r="B56" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D56" s="5"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="3"/>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="6"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
+      <c r="B57" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="D57" s="5"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="3"/>
+      <c r="F57" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="6"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+      <c r="B58" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="D58" s="5"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="9"/>
+      <c r="F58" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="6"/>
+      <c r="B59" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="2"/>
-      <c r="B62" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2" t="s">
+    <row r="63" spans="1:6">
+      <c r="A63" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="2"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
       <c r="F63" s="3" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="5"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="4"/>
+      <c r="A64" s="2"/>
+      <c r="B64" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="3" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="2"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="3" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="6"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="5"/>
+      <c r="A66" s="2"/>
+      <c r="B66" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="3" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="6"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="6"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="6"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="3" t="s">
-        <v>48</v>
+      <c r="F67" s="14" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A61:F61"/>
     <mergeCell ref="A49:F49"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A12:F12"/>

--- a/購物網站資料表.xlsx
+++ b/購物網站資料表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShoppingDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E82B05-6F10-440F-A192-5A1D0C44009F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47C556B-7E68-4B21-B777-3DA1B6BE1D2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10275" yWindow="495" windowWidth="21570" windowHeight="15600" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
+    <workbookView xWindow="5625" yWindow="390" windowWidth="21570" windowHeight="14205" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
   </bookViews>
   <sheets>
     <sheet name="資料表分類" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="116">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -229,10 +229,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>商品類型。1 = 帽子，2 = 上衣，3 = 外套，4 = 褲子</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>商品流水號</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -257,10 +253,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>錢包</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>f_birthday</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -328,10 +320,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>f_wallet</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>f_totalSpent</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -431,11 +419,59 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>小計</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>訂單明細資料表(t_orderDetails)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員錢包流水號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員錢包資料表(t_wallet)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員總消費資料表(t_totalSpent)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小記</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>變動前金額</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>變動後金額</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>變動金額</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_previousAmount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_finalAmount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_changeAmount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>變動時間</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_subtotal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品類型。1000 = 帽子，2000 = 上衣，3000 = 外套，4000 = 褲子</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +541,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -565,24 +601,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -604,15 +629,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -625,7 +641,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -942,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D101F85-424C-4929-BB72-A533CD2B233E}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -963,14 +997,14 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1"/>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -1063,14 +1097,14 @@
       <c r="F10" s="3"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
@@ -1107,7 +1141,7 @@
         <v>23</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1177,14 +1211,14 @@
       <c r="F19" s="3"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
@@ -1221,7 +1255,7 @@
         <v>9</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1249,7 +1283,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="3" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1341,7 +1375,7 @@
     <row r="32" spans="1:6">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>19</v>
@@ -1353,14 +1387,14 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
+      <c r="A34" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
@@ -1397,7 +1431,7 @@
         <v>9</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1411,7 +1445,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1431,21 +1465,21 @@
     <row r="39" spans="1:6">
       <c r="A39" s="6"/>
       <c r="B39" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
       <c r="F39" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="6"/>
       <c r="B40" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>21</v>
@@ -1455,392 +1489,591 @@
         <v>0</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="5"/>
       <c r="B43" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="5"/>
+      <c r="A44" s="6"/>
       <c r="B44" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="5"/>
       <c r="E44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="2"/>
+      <c r="A45" s="6"/>
       <c r="B45" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="6"/>
-      <c r="B46" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="2">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="17"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="6"/>
-      <c r="B47" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="12"/>
+      <c r="C48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="9"/>
+      <c r="A49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>5</v>
+      <c r="A50" s="5"/>
+      <c r="B50" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A51" s="5"/>
       <c r="B51" s="3" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2" t="s">
-        <v>9</v>
+      <c r="D51" s="5"/>
+      <c r="E51" s="2">
+        <v>0</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="2"/>
-      <c r="B52" s="10" t="s">
-        <v>90</v>
+      <c r="A52" s="6"/>
+      <c r="B52" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
       <c r="F52" s="3" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="5"/>
-      <c r="B53" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="4" t="s">
+      <c r="A53" s="6"/>
+      <c r="B53" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
       <c r="F53" s="3" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="2"/>
+      <c r="A54" s="6"/>
       <c r="B54" s="3" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F54" s="3" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="6"/>
-      <c r="B55" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="2">
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="17"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="13"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="6"/>
-      <c r="B56" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="2">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="6"/>
-      <c r="B57" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="3" t="s">
+      <c r="C57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="5"/>
+      <c r="B59" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="5"/>
+      <c r="B60" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="6"/>
-      <c r="B58" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="3" t="s">
+      <c r="C60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="6"/>
-      <c r="B59" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="10"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="13"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="2" t="s">
+    <row r="64" spans="1:6">
+      <c r="A64" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="2"/>
       <c r="B64" s="3" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="E64" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F64" s="3" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="5"/>
-      <c r="B65" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>18</v>
+      <c r="A65" s="2"/>
+      <c r="B65" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="2"/>
+      <c r="A66" s="5"/>
       <c r="B66" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C66" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2"/>
+      <c r="B67" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="6"/>
+      <c r="B68" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="2">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="6"/>
+      <c r="B69" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="2">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="F67" s="14" t="s">
-        <v>105</v>
+    <row r="70" spans="1:6">
+      <c r="A70" s="6"/>
+      <c r="B70" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="6"/>
+      <c r="B71" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="6"/>
+      <c r="B72" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="13"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2"/>
+      <c r="B77" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="5"/>
+      <c r="B78" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2"/>
+      <c r="B79" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2"/>
+      <c r="B80" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A49:F49"/>
+  <mergeCells count="8">
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A62:F62"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A47:F47"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/購物網站資料表.xlsx
+++ b/購物網站資料表.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShoppingDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47C556B-7E68-4B21-B777-3DA1B6BE1D2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A73CE3-FF3F-46FB-8DB2-93E5E6AA9921}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="390" windowWidth="21570" windowHeight="14205" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
+    <workbookView xWindow="8370" yWindow="120" windowWidth="21570" windowHeight="14190" activeTab="1" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
   </bookViews>
   <sheets>
     <sheet name="資料表分類" sheetId="4" r:id="rId1"/>
+    <sheet name="管理員" sheetId="6" r:id="rId2"/>
+    <sheet name="商品" sheetId="8" r:id="rId3"/>
+    <sheet name="會員" sheetId="9" r:id="rId4"/>
+    <sheet name="訂單" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="122">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -360,10 +364,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>訂單編號。訂單創建時間+訂單id，以確保不重複</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>f_serialNumber</t>
   </si>
   <si>
@@ -372,9 +372,6 @@
   </si>
   <si>
     <t>f_id</t>
-  </si>
-  <si>
-    <t>f_orderId</t>
   </si>
   <si>
     <t>f_productId</t>
@@ -473,6 +470,38 @@
   <si>
     <t>商品類型。1000 = 帽子，2000 = 上衣，3000 = 外套，4000 = 褲子</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_productName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_productPrice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品價格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單編號。訂單創建時間+訂單總金額，以確保不重複</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_orderId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員錢包異動資料表(t_wallet)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -641,15 +670,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -661,6 +681,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -976,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D101F85-424C-4929-BB72-A533CD2B233E}">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -997,14 +1026,14 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1"/>
     <row r="2" spans="1:6">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -1097,14 +1126,14 @@
       <c r="F10" s="3"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
@@ -1211,14 +1240,14 @@
       <c r="F19" s="3"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
@@ -1283,7 +1312,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1375,7 +1404,7 @@
     <row r="32" spans="1:6">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>19</v>
@@ -1387,14 +1416,14 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="13"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
@@ -1526,7 +1555,7 @@
         <v>62</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -1568,21 +1597,21 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="6"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="17"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="14"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="13"/>
+      <c r="A47" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="17"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
@@ -1619,11 +1648,13 @@
         <v>9</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="5"/>
+      <c r="A50" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="B50" s="3" t="s">
         <v>81</v>
       </c>
@@ -1639,7 +1670,7 @@
     <row r="51" spans="1:6">
       <c r="A51" s="5"/>
       <c r="B51" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>18</v>
@@ -1649,13 +1680,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="6"/>
       <c r="B52" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>18</v>
@@ -1665,13 +1696,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="6"/>
       <c r="B53" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>18</v>
@@ -1681,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1697,26 +1728,26 @@
         <v>48</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="6"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="17"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="14"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="13"/>
+      <c r="A56" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="17"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
@@ -1757,7 +1788,9 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="5"/>
+      <c r="A59" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="B59" s="3" t="s">
         <v>81</v>
       </c>
@@ -1795,14 +1828,14 @@
       <c r="F61" s="9"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="13"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="17"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
@@ -1845,7 +1878,7 @@
     <row r="65" spans="1:6">
       <c r="A65" s="2"/>
       <c r="B65" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>22</v>
@@ -1853,11 +1886,13 @@
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="3" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="5"/>
+      <c r="A66" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="B66" s="3" t="s">
         <v>81</v>
       </c>
@@ -1873,7 +1908,7 @@
     <row r="67" spans="1:6">
       <c r="A67" s="2"/>
       <c r="B67" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>18</v>
@@ -1897,13 +1932,13 @@
         <v>1</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="6"/>
       <c r="B69" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>21</v>
@@ -1913,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1922,7 +1957,7 @@
         <v>85</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="2"/>
@@ -1961,14 +1996,14 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="13"/>
+      <c r="A74" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="17"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
@@ -1995,7 +2030,7 @@
         <v>35</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>18</v>
@@ -2005,13 +2040,15 @@
         <v>9</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="2"/>
+      <c r="A77" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B77" s="3" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>18</v>
@@ -2019,13 +2056,13 @@
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="5"/>
       <c r="B78" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>18</v>
@@ -2033,27 +2070,27 @@
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2"/>
       <c r="B79" s="3" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="3" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2"/>
       <c r="B80" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>18</v>
@@ -2061,7 +2098,35 @@
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="3" t="s">
-        <v>106</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2"/>
+      <c r="B81" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2"/>
+      <c r="B82" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2079,4 +2144,1133 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30E4312-E513-4CD3-9D2E-4692222848A0}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="81.875" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="20.25" customWidth="1"/>
+    <col min="10" max="10" width="24.25" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="24.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB40085-31BE-4EA0-815F-5AAFC094361B}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="81.875" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="20.25" customWidth="1"/>
+    <col min="10" max="10" width="24.25" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="24.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F222A32-0DBE-426F-B807-185E93BD766D}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="81.875" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="20.25" customWidth="1"/>
+    <col min="10" max="10" width="24.25" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="24.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6"/>
+      <c r="B13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6"/>
+      <c r="B20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6"/>
+      <c r="B21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6"/>
+      <c r="B22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="6"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="5"/>
+      <c r="B27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="5"/>
+      <c r="B28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A24:F24"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EE44C3-BA83-4452-9E99-CF6BB51856A2}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="81.875" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="20.25" customWidth="1"/>
+    <col min="10" max="10" width="24.25" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="24.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6"/>
+      <c r="B10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6"/>
+      <c r="B11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A13:F13"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/購物網站資料表.xlsx
+++ b/購物網站資料表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShoppingDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A73CE3-FF3F-46FB-8DB2-93E5E6AA9921}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B2C6C4-625C-4A6F-ACA5-F77D226AE246}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8370" yWindow="120" windowWidth="21570" windowHeight="14190" activeTab="1" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
+    <workbookView xWindow="6360" yWindow="15" windowWidth="21570" windowHeight="15330" activeTab="2" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
   </bookViews>
   <sheets>
     <sheet name="資料表分類" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="134">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -500,8 +500,56 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>會員錢包異動資料表(t_wallet)</t>
+    <t>會員錢包異動流水號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>錢包金額</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_amount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員錢包異動資料表(t_walletChanges)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理員帳號</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_account</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址。xx縣(市) xx鄉(鎮 市 區) xx村(里) xxx鄰 xxx路(街) xxx巷 xxx弄 xxx號之xxx棟 xxx樓之xxx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(15)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立者，用ID來記錄</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -661,13 +709,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1007,7 +1055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D101F85-424C-4929-BB72-A533CD2B233E}">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -2150,8 +2198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30E4312-E513-4CD3-9D2E-4692222848A0}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2218,7 +2266,7 @@
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
@@ -2226,7 +2274,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2287,8 +2335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB40085-31BE-4EA0-815F-5AAFC094361B}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2472,12 +2520,12 @@
         <v>99</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2492,17 +2540,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F222A32-0DBE-426F-B807-185E93BD766D}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:F15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="22.25" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="81.875" customWidth="1"/>
+    <col min="6" max="6" width="86.5" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="20.625" customWidth="1"/>
     <col min="9" max="9" width="20.25" customWidth="1"/>
@@ -2562,7 +2610,7 @@
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>19</v>
@@ -2579,7 +2627,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2593,7 +2641,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2637,7 +2685,7 @@
         <v>60</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2665,12 +2713,12 @@
         <v>62</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2715,7 +2763,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="15" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -2778,7 +2826,7 @@
     <row r="19" spans="1:6">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>18</v>
@@ -2788,117 +2836,111 @@
         <v>0</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="6"/>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5"/>
+      <c r="B24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5"/>
+      <c r="B25" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="6"/>
+      <c r="B26" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="C26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="6"/>
-      <c r="B21" s="4" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="6"/>
+      <c r="B27" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="6"/>
-      <c r="B22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="6"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="5"/>
-      <c r="B27" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>18</v>
@@ -2906,38 +2948,125 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="6"/>
+      <c r="B28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="6"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="5"/>
+      <c r="B33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="5"/>
-      <c r="B28" s="3" t="s">
+    <row r="34" spans="1:6">
+      <c r="A34" s="5"/>
+      <c r="B34" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="2">
+      <c r="C34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="2">
         <v>0</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
+    <row r="35" spans="1:6">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A30:F30"/>
     <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A24:F24"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/購物網站資料表.xlsx
+++ b/購物網站資料表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShoppingDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B2C6C4-625C-4A6F-ACA5-F77D226AE246}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1518D17-C5A9-4786-9C39-939DA8F4F9CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="15" windowWidth="21570" windowHeight="15330" activeTab="2" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
   </bookViews>
   <sheets>
     <sheet name="資料表分類" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="136">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -549,6 +549,14 @@
   </si>
   <si>
     <t>建立者，用ID來記錄</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員ID，跟會員表是一對一，所以不用流水號。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單詳情流水號，跟訂單表是一對多，所以要流水號。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2335,8 +2343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB40085-31BE-4EA0-815F-5AAFC094361B}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2540,10 +2548,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F222A32-0DBE-426F-B807-185E93BD766D}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2796,137 +2804,135 @@
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>101</v>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5"/>
+      <c r="B23" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="3" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="6"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="2"/>
       <c r="F24" s="3" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="5"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="6"/>
-      <c r="B26" s="3" t="s">
-        <v>109</v>
+      <c r="B26" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>18</v>
@@ -2934,138 +2940,108 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="6"/>
-      <c r="B27" s="4" t="s">
-        <v>110</v>
+      <c r="B27" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F27" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="6"/>
-      <c r="B28" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="6"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="14"/>
+      <c r="A29" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17"/>
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="5"/>
+      <c r="B32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="2">
         <v>0</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>12</v>
+      <c r="F32" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="5"/>
-      <c r="B33" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="5"/>
-      <c r="B34" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A29:F29"/>
     <mergeCell ref="A15:F15"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3078,8 +3054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EE44C3-BA83-4452-9E99-CF6BB51856A2}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3306,7 +3282,7 @@
         <v>9</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:6">

--- a/購物網站資料表.xlsx
+++ b/購物網站資料表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShoppingDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1518D17-C5A9-4786-9C39-939DA8F4F9CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FC0C4B-8A05-4977-A604-9FC6D5B8D297}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
+    <workbookView xWindow="6390" yWindow="1485" windowWidth="21570" windowHeight="11505" activeTab="4" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
   </bookViews>
   <sheets>
     <sheet name="資料表分類" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="142">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -558,6 +558,30 @@
   <si>
     <t>訂單詳情流水號，跟訂單表是一對多，所以要流水號。</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_productId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_quantity</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_productCategory</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品類型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(40)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1063,7 +1087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D101F85-424C-4929-BB72-A533CD2B233E}">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -2344,7 +2368,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2550,8 +2574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F222A32-0DBE-426F-B807-185E93BD766D}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2587,9 +2611,7 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2632,29 +2654,29 @@
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>131</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
+      <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>130</v>
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3052,10 +3074,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EE44C3-BA83-4452-9E99-CF6BB51856A2}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="A13" sqref="A13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3186,9 +3208,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
         <v>97</v>
       </c>
@@ -3272,7 +3292,7 @@
         <v>35</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>18</v>
@@ -3302,7 +3322,7 @@
     <row r="17" spans="1:6">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -3319,7 +3339,7 @@
         <v>114</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -3344,21 +3364,21 @@
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="3" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>18</v>
@@ -3366,6 +3386,20 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3" t="s">
         <v>104</v>
       </c>
     </row>

--- a/購物網站資料表.xlsx
+++ b/購物網站資料表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShoppingDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FC0C4B-8A05-4977-A604-9FC6D5B8D297}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F8D852-FD36-4A30-A749-D193044FB888}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="1485" windowWidth="21570" windowHeight="11505" activeTab="4" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
+    <workbookView xWindow="3585" yWindow="1455" windowWidth="21570" windowHeight="11505" activeTab="3" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
   </bookViews>
   <sheets>
     <sheet name="資料表分類" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="147">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -581,6 +581,26 @@
   </si>
   <si>
     <t>nvarchar(40)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_level</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_phoneNumber</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_email</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_address</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2574,8 +2594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F222A32-0DBE-426F-B807-185E93BD766D}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2643,7 +2663,7 @@
         <v>126</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2696,7 +2716,7 @@
     <row r="8" spans="1:6">
       <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>21</v>
@@ -2712,7 +2732,7 @@
     <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>129</v>
@@ -2726,10 +2746,10 @@
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2740,7 +2760,7 @@
     <row r="11" spans="1:6">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>127</v>
@@ -3076,7 +3096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EE44C3-BA83-4452-9E99-CF6BB51856A2}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:F13"/>
     </sheetView>
   </sheetViews>

--- a/購物網站資料表.xlsx
+++ b/購物網站資料表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShoppingDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F8D852-FD36-4A30-A749-D193044FB888}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F733A3-79E8-4775-AC7A-B247239BA03C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="1455" windowWidth="21570" windowHeight="11505" activeTab="3" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
+    <workbookView xWindow="5775" yWindow="2850" windowWidth="21570" windowHeight="12300" activeTab="4" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
   </bookViews>
   <sheets>
     <sheet name="資料表分類" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="156">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -601,6 +601,42 @@
   </si>
   <si>
     <t>f_address</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款狀態。1.未付款  2.付款失敗  3.超過付款時間  4.已付款  5.退款中  6.已退款</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單狀態。1.處理中  2.已確認  3.已完成  4.已取消</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送狀態。1.備貨中  2.發貨中  3.已發貨  4.已到達  5.已取貨  6.已退回  7.退回中</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_orderStatus</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_deliveryMethod</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_paymentStatus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_deliveryStatus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_serialNumber</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2594,7 +2630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F222A32-0DBE-426F-B807-185E93BD766D}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -3094,10 +3130,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EE44C3-BA83-4452-9E99-CF6BB51856A2}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3164,7 +3200,7 @@
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="7" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>22</v>
@@ -3206,7 +3242,7 @@
     <row r="7" spans="1:6">
       <c r="A7" s="6"/>
       <c r="B7" s="3" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>21</v>
@@ -3216,189 +3252,193 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
       <c r="F8" s="3" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6"/>
       <c r="B9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>87</v>
+        <v>154</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
       <c r="F9" s="3" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6"/>
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6"/>
       <c r="B11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6"/>
+      <c r="B13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="2" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="15" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="2"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="3" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>18</v>
@@ -3406,27 +3446,55 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A15:F15"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/購物網站資料表.xlsx
+++ b/購物網站資料表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShoppingDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F733A3-79E8-4775-AC7A-B247239BA03C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A55910F-D39E-43A3-8B1E-2464A25A4872}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5775" yWindow="2850" windowWidth="21570" windowHeight="12300" activeTab="4" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
+    <workbookView xWindow="3810" yWindow="2250" windowWidth="21570" windowHeight="11505" activeTab="4" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
   </bookViews>
   <sheets>
     <sheet name="資料表分類" sheetId="4" r:id="rId1"/>
@@ -604,16 +604,8 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>付款狀態。1.未付款  2.付款失敗  3.超過付款時間  4.已付款  5.退款中  6.已退款</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>訂單狀態。1.處理中  2.已確認  3.已完成  4.已取消</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送狀態。1.備貨中  2.發貨中  3.已發貨  4.已到達  5.已取貨  6.已退回  7.退回中</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>tinyint</t>
@@ -637,6 +629,14 @@
   </si>
   <si>
     <t>f_serialNumber</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送狀態。1.發貨中  2.已發貨  3.已到貨  4.已取貨  5.已退回  6.退回中</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">付款狀態。1.未付款  2.付款失敗  3.已付款  4.退款中  5.已退款 </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -706,7 +706,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -766,13 +766,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -826,6 +837,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1143,7 +1157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D101F85-424C-4929-BB72-A533CD2B233E}">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -2287,7 +2301,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2631,7 +2645,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3132,8 +3146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EE44C3-BA83-4452-9E99-CF6BB51856A2}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3200,7 +3214,7 @@
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>22</v>
@@ -3242,7 +3256,7 @@
     <row r="7" spans="1:6">
       <c r="A7" s="6"/>
       <c r="B7" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>21</v>
@@ -3252,45 +3266,45 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6"/>
       <c r="B9" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6"/>
       <c r="B10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -3344,6 +3358,9 @@
       <c r="F13" s="3" t="s">
         <v>46</v>
       </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="15" t="s">

--- a/購物網站資料表.xlsx
+++ b/購物網站資料表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShoppingDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A55910F-D39E-43A3-8B1E-2464A25A4872}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA286B9-8E55-4A0E-906C-C6D638A825CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="2250" windowWidth="21570" windowHeight="11505" activeTab="4" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21570" windowHeight="11505" activeTab="4" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
   </bookViews>
   <sheets>
     <sheet name="資料表分類" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="154">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -604,10 +604,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>訂單狀態。1.處理中  2.已確認  3.已完成  4.已取消</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>tinyint</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -620,10 +616,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>f_paymentStatus</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>f_deliveryStatus</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -632,12 +624,12 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>配送狀態。1.發貨中  2.已發貨  3.已到貨  4.已取貨  5.已退回  6.退回中</t>
+    <t xml:space="preserve">配送狀態。1.發貨中  2.已發貨  3.已到貨  4.已取貨  5.退貨中  6.已退貨 </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">付款狀態。1.未付款  2.付款失敗  3.已付款  4.退款中  5.已退款 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>訂單狀態。1.未付款  2.付款失敗  3.已付款  4.申請退貨  5.退款中  6.已退款</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -829,6 +821,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -837,9 +832,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1176,14 +1168,14 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1"/>
     <row r="2" spans="1:6">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -1276,14 +1268,14 @@
       <c r="F10" s="3"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
@@ -1390,14 +1382,14 @@
       <c r="F19" s="3"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
@@ -1566,14 +1558,14 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
@@ -1754,14 +1746,14 @@
       <c r="F46" s="14"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
@@ -1890,14 +1882,14 @@
       <c r="F55" s="14"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="18"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
@@ -1978,14 +1970,14 @@
       <c r="F61" s="9"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="18"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
@@ -2146,14 +2138,14 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="18"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
@@ -2318,14 +2310,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -2455,14 +2447,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -2662,14 +2654,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -2862,14 +2854,14 @@
       <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
@@ -2932,14 +2924,14 @@
       <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
@@ -3060,14 +3052,14 @@
       <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
@@ -3144,10 +3136,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EE44C3-BA83-4452-9E99-CF6BB51856A2}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3164,14 +3156,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -3214,7 +3206,7 @@
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>22</v>
@@ -3256,7 +3248,7 @@
     <row r="7" spans="1:6">
       <c r="A7" s="6"/>
       <c r="B7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>21</v>
@@ -3266,224 +3258,222 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6"/>
       <c r="B9" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6"/>
       <c r="B10" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>85</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6"/>
       <c r="B11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6"/>
       <c r="B12" s="3" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F12" s="3" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6">
+      <c r="A14" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>5</v>
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="3" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="2"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="5"/>
+      <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>18</v>
+        <v>114</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="3" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="3" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>18</v>
@@ -3491,27 +3481,13 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A14:F14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/購物網站資料表.xlsx
+++ b/購物網站資料表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShoppingDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA286B9-8E55-4A0E-906C-C6D638A825CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F600D973-DB3D-46AB-AB5C-2D380F6DAD3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21570" windowHeight="11505" activeTab="4" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
   </bookViews>
@@ -3138,8 +3138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EE44C3-BA83-4452-9E99-CF6BB51856A2}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/購物網站資料表.xlsx
+++ b/購物網站資料表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShoppingDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F600D973-DB3D-46AB-AB5C-2D380F6DAD3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FA6F53-5826-4775-9DB4-7ADE86C2C534}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21570" windowHeight="11505" activeTab="4" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
   </bookViews>
@@ -628,7 +628,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>訂單狀態。1.未付款  2.付款失敗  3.已付款  4.申請退貨  5.退款中  6.已退款</t>
+    <t>訂單狀態。1.已付款  2.申請退貨  3.退款中  4.已退款</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2636,7 +2636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F222A32-0DBE-426F-B807-185E93BD766D}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
@@ -3138,8 +3138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EE44C3-BA83-4452-9E99-CF6BB51856A2}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/購物網站資料表.xlsx
+++ b/購物網站資料表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShoppingDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FA6F53-5826-4775-9DB4-7ADE86C2C534}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECFCE68-B8BC-44C2-937F-572B55581BCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21570" windowHeight="11505" activeTab="4" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
+    <workbookView xWindow="10500" yWindow="1260" windowWidth="21570" windowHeight="11505" activeTab="2" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
   </bookViews>
   <sheets>
     <sheet name="資料表分類" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="164">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -630,6 +630,46 @@
   <si>
     <t>訂單狀態。1.已付款  2.申請退貨  3.退款中  4.已退款</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_introduce</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_nameEN</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品英文名稱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_introduceEN</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品英文描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_isOpen</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_createdTime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2427,10 +2467,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB40085-31BE-4EA0-815F-5AAFC094361B}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2500,7 +2540,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2509,51 +2549,51 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>155</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6"/>
+      <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -2561,64 +2601,92 @@
       <c r="D8" s="5"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6"/>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
+      <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>132</v>
+        <v>157</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2636,7 +2704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F222A32-0DBE-426F-B807-185E93BD766D}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
@@ -3138,7 +3206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EE44C3-BA83-4452-9E99-CF6BB51856A2}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/購物網站資料表.xlsx
+++ b/購物網站資料表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShoppingDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECFCE68-B8BC-44C2-937F-572B55581BCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E35783-2340-4502-9FB4-BD5C9C3A09FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="1260" windowWidth="21570" windowHeight="11505" activeTab="2" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
+    <workbookView xWindow="6735" yWindow="2640" windowWidth="21570" windowHeight="11505" activeTab="2" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
   </bookViews>
   <sheets>
     <sheet name="資料表分類" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="167">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -670,6 +670,18 @@
   <si>
     <t>varchar(100)</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品中文名稱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_productNameEN</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品英文名稱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2470,7 +2482,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3204,10 +3216,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EE44C3-BA83-4452-9E99-CF6BB51856A2}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A14" sqref="A14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3493,55 +3505,55 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="3" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="3" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>18</v>
@@ -3549,6 +3561,20 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3" t="s">
         <v>104</v>
       </c>
     </row>

--- a/購物網站資料表.xlsx
+++ b/購物網站資料表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShoppingDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E35783-2340-4502-9FB4-BD5C9C3A09FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7839371A-F609-4605-9144-DDBE1D309DA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="2640" windowWidth="21570" windowHeight="11505" activeTab="2" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
+    <workbookView xWindow="4980" yWindow="2175" windowWidth="21570" windowHeight="11505" activeTab="2" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
   </bookViews>
   <sheets>
     <sheet name="資料表分類" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="168">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -580,10 +580,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>nvarchar(40)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(50)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -632,10 +628,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>f_introduce</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>f_nameEN</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -664,14 +656,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(1000)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>商品中文名稱</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -681,6 +665,26 @@
   </si>
   <si>
     <t>商品英文名稱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_nameTW</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_introduceTW</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_productNameTW</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2482,7 +2486,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2549,10 +2553,10 @@
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2563,7 +2567,7 @@
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>163</v>
@@ -2571,7 +2575,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2633,7 +2637,7 @@
     <row r="10" spans="1:6">
       <c r="A10" s="6"/>
       <c r="B10" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>38</v>
@@ -2647,7 +2651,7 @@
     <row r="11" spans="1:6">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>39</v>
@@ -2661,24 +2665,24 @@
     <row r="12" spans="1:6">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
@@ -2838,7 +2842,7 @@
     <row r="8" spans="1:6">
       <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>21</v>
@@ -2854,7 +2858,7 @@
     <row r="9" spans="1:6">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>129</v>
@@ -2868,10 +2872,10 @@
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2882,7 +2886,7 @@
     <row r="11" spans="1:6">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>127</v>
@@ -3218,7 +3222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EE44C3-BA83-4452-9E99-CF6BB51856A2}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:F14"/>
     </sheetView>
   </sheetViews>
@@ -3286,7 +3290,7 @@
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>22</v>
@@ -3328,7 +3332,7 @@
     <row r="7" spans="1:6">
       <c r="A7" s="6"/>
       <c r="B7" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>21</v>
@@ -3338,29 +3342,29 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6"/>
       <c r="B9" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -3497,21 +3501,21 @@
     <row r="19" spans="1:6">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>163</v>
@@ -3519,7 +3523,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:6">

--- a/購物網站資料表.xlsx
+++ b/購物網站資料表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShoppingDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7839371A-F609-4605-9144-DDBE1D309DA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D682586F-16C7-4811-AD6F-8A739D17F59A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="2175" windowWidth="21570" windowHeight="11505" activeTab="2" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
+    <workbookView xWindow="5580" yWindow="2475" windowWidth="18180" windowHeight="11505" activeTab="2" xr2:uid="{AC5E3D76-E2AF-4B4A-A26E-DAD346AA6234}"/>
   </bookViews>
   <sheets>
     <sheet name="資料表分類" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="170">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -686,6 +686,14 @@
   <si>
     <t>f_productNameTW</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_warningValue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>庫存預警值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2483,10 +2491,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB40085-31BE-4EA0-815F-5AAFC094361B}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2679,30 +2687,44 @@
     <row r="13" spans="1:6">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3" t="s">
         <v>133</v>
       </c>
     </row>
